--- a/미로 알고리즘 색칠공부.xlsx
+++ b/미로 알고리즘 색칠공부.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>0,3</t>
   </si>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>40개…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16개가 적절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +405,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -703,9 +710,9 @@
     <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2"/>
@@ -722,7 +729,7 @@
       </c>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,10 +752,13 @@
       <c r="L2" t="s">
         <v>40</v>
       </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="18"/>
@@ -765,7 +775,7 @@
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,21 +788,21 @@
         <v>13</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="18"/>
@@ -805,7 +815,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -826,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
@@ -836,7 +846,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="18"/>
@@ -845,7 +855,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -854,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="4"/>
@@ -866,7 +876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
         <v>19</v>
